--- a/biology/Zoologie/Apataidae/Apataidae.xlsx
+++ b/biology/Zoologie/Apataidae/Apataidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Apataidae sont une famille de mollusques gastéropodes nudibranches marins.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille des Apataidae a été créée en 2017 par Tatiana Korshunova (d), Alexander Vladimirovitch Martynov (d), Torkild Bakken (d), Jussi Evertsen (d), Karin Fletcher (d), I. Wayan Mudianta (d), Hiroshi Saito (d), Kennet Lundin (d), Michael Schrödl (d) et Bernard E. Picton (d)[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Apataidae a été créée en 2017 par Tatiana Korshunova (d), Alexander Vladimirovitch Martynov (d), Torkild Bakken (d), Jussi Evertsen (d), Karin Fletcher (d), I. Wayan Mudianta (d), Hiroshi Saito (d), Kennet Lundin (d), Michael Schrödl (d) et Bernard E. Picton (d),.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (29 septembre 2021)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (29 septembre 2021) :
 genre Apata Korshunova, Martynov, Bakken, Evertsen, Fletcher, Mudianta, Saito, Lundin, Schrödl &amp; Picton, 2017
 genre Tularia Burn, 1966</t>
         </is>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Tatiana Korshunova, Alexander Vladimirovitch Martynov, Torkild Bakken, Jussi Evertsen, Karin Fletcher, I. Wayan Mudianta, Hiroshi Saito, Kennet Lundin, Michael Schrödl et Bernard E. Picton, « Polyphyly of the traditional family Flabellinidae affects a major group of Nudibranchia: aeolidacean taxonomic reassessment with descriptions of several new families, genera, and species (Mollusca, Gastropoda) », ZooKeys, Sofia, Pensoft Publishers (d), vol. 717, no 717,‎ 30 novembre 2017, p. 1-139 (ISSN 1313-2989 et 1313-2970, OCLC 248547717, PMID 29391848, PMCID 5784208, DOI 10.3897/ZOOKEYS.717.21885, lire en ligne)</t>
         </is>
